--- a/events.xlsx
+++ b/events.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>a</t>
     <phoneticPr fontId="1"/>
@@ -38,6 +38,26 @@
   </si>
   <si>
     <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ka</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ke</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ko</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -363,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -388,6 +408,51 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/events.xlsx
+++ b/events.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>a</t>
     <phoneticPr fontId="1"/>
@@ -383,73 +383,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A2:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
